--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1283933.303519712</v>
+        <v>1300578.4228234</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514576.830033302</v>
+        <v>510255.4272999068</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -701,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>31.69844046683744</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.944519418634053</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -972,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>155.1331353823688</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1139,17 +1141,17 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,16 +1265,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>210.0591235980799</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1373,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>244.4874394051613</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>278.8265697844214</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>66.10337650124413</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>134.5658975014684</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>90.94970861955596</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>158.252581986138</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.20246860709963</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1695,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>94.12001078391287</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>88.00880902957773</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
@@ -1749,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>21.38816470214926</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>26.50533691882893</v>
       </c>
       <c r="I17" t="n">
-        <v>117.3450705775779</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>174.9714391784258</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>48.98427584501901</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.19479062707042</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>109.1332517576475</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>189.058706277968</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>139.4577222705006</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>46.76666192739773</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -2226,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>396.3620211453171</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>185.5869959907141</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>120.369604185272</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>88.00880902957773</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>11.33877089098627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>103.445194512062</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>95.71084011701873</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,25 +2636,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>122.0501874122703</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>73.69262803085979</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2755,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>42.05930342856824</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>158.2525819861379</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>31.31115726384986</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -2849,13 +2851,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>117.3450705775779</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>122.0501874122703</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>6.975990250687547</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>261.4697023004215</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>142.498470485017</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>118.6954547790013</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>140.514979870707</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3205,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.41786548649361</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3269,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>85.67417889435359</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>38.92321710192613</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>22.50182516431508</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.718728888479093</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.914749732671</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>106.0890042129125</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>63.16695897545105</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>120.1174680519563</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3582,25 +3584,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>129.6060496061978</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>39.19479062707041</v>
+        <v>99.78974769572869</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3785,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>76.20301993227049</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>244.7643066803899</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>3.062277887576959</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>52.80533751172075</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>85.67417889435364</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>399.8885402891419</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>42.91776097346543</v>
+        <v>7.809433168182236</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>33.64439241526551</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X2" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="Y2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="V2" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W2" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X3" t="n">
-        <v>718.6442178376129</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y3" t="n">
-        <v>510.883919072659</v>
+        <v>51.29976984439196</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4544,13 +4546,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4607,10 +4609,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.5465265007123</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C6" t="n">
-        <v>304.5465265007123</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D6" t="n">
-        <v>304.5465265007123</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4647,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>532.7701447643233</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>304.5465265007123</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>304.5465265007123</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>304.5465265007123</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>304.5465265007123</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>304.5465265007123</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
         <v>136.0777814360265</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4893,10 +4895,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="10">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C11" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D11" t="n">
-        <v>503.7583553506526</v>
+        <v>1264.700589380859</v>
       </c>
       <c r="E11" t="n">
-        <v>503.7583553506526</v>
+        <v>878.9123367826144</v>
       </c>
       <c r="F11" t="n">
-        <v>503.7583553506526</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G11" t="n">
-        <v>503.7583553506526</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H11" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521494</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>834.8212426942232</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W11" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X11" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y11" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="C12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="D12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>758.3581127497702</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
@@ -5142,28 +5144,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1556.195200612615</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1355.292191718108</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894784</v>
+        <v>1127.089524255587</v>
       </c>
       <c r="V12" t="n">
-        <v>709.8087082577356</v>
+        <v>891.937416023844</v>
       </c>
       <c r="W12" t="n">
-        <v>455.571351529534</v>
+        <v>637.7000592956424</v>
       </c>
       <c r="X12" t="n">
-        <v>247.7198513240011</v>
+        <v>429.8485590901096</v>
       </c>
       <c r="Y12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>269.3782090579441</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5233,16 +5235,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>800.5649960805454</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="C14" t="n">
-        <v>800.5649960805454</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="D14" t="n">
-        <v>442.2992974737949</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E14" t="n">
-        <v>442.2992974737949</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F14" t="n">
-        <v>442.2992974737949</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
         <v>32.45932575975218</v>
@@ -5276,10 +5278,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528324</v>
@@ -5303,25 +5305,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1539.933491414781</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="T14" t="n">
-        <v>1539.933491414781</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="U14" t="n">
-        <v>1539.933491414781</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="V14" t="n">
-        <v>1539.933491414781</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="W14" t="n">
-        <v>1187.164836144667</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="X14" t="n">
-        <v>1187.164836144667</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="Y14" t="n">
-        <v>1187.164836144667</v>
+        <v>1574.735921498931</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>455.5713515295337</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C15" t="n">
-        <v>455.5713515295337</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="D15" t="n">
-        <v>455.5713515295337</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="E15" t="n">
-        <v>455.5713515295337</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>147.3709770270845</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313474</v>
+        <v>855.0325800923007</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U15" t="n">
-        <v>944.9608164894781</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V15" t="n">
-        <v>709.8087082577354</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W15" t="n">
-        <v>455.5713515295337</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X15" t="n">
-        <v>455.5713515295337</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y15" t="n">
-        <v>455.5713515295337</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975218</v>
@@ -5443,43 +5445,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>296.5701361642184</v>
       </c>
       <c r="R16" t="n">
         <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>150.9897000805379</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C17" t="n">
-        <v>150.9897000805379</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D17" t="n">
-        <v>150.9897000805379</v>
+        <v>1264.700589380859</v>
       </c>
       <c r="E17" t="n">
-        <v>150.9897000805379</v>
+        <v>878.9123367826144</v>
       </c>
       <c r="F17" t="n">
-        <v>150.9897000805379</v>
+        <v>469.0723650685716</v>
       </c>
       <c r="G17" t="n">
-        <v>150.9897000805379</v>
+        <v>59.23239335452888</v>
       </c>
       <c r="H17" t="n">
-        <v>150.9897000805379</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>503.7583553506521</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W17" t="n">
-        <v>150.9897000805379</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X17" t="n">
-        <v>150.9897000805379</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y17" t="n">
-        <v>150.9897000805379</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>507.0351915391004</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C18" t="n">
-        <v>507.0351915391004</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D18" t="n">
-        <v>507.0351915391004</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E18" t="n">
         <v>507.0351915391004</v>
@@ -5592,52 +5594,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>416.5288870900306</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456783</v>
+        <v>736.8642066197324</v>
       </c>
       <c r="N18" t="n">
-        <v>1074.129872983296</v>
+        <v>1081.384862257351</v>
       </c>
       <c r="O18" t="n">
-        <v>1397.143380157854</v>
+        <v>1330.138276341313</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U18" t="n">
-        <v>996.4246564990447</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V18" t="n">
-        <v>761.272548267302</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W18" t="n">
-        <v>507.0351915391004</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X18" t="n">
-        <v>507.0351915391004</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y18" t="n">
-        <v>507.0351915391004</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5700,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>139.6199360758254</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U19" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V19" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
         <v>32.45932575975218</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>401.4218427001639</v>
+        <v>552.5349053098025</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45932575975218</v>
+        <v>552.5349053098025</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975218</v>
+        <v>552.5349053098025</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975218</v>
+        <v>552.5349053098025</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>142.6949335957598</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>142.6949335957598</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975218</v>
@@ -5750,16 +5752,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L20" t="n">
         <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5780,22 +5782,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1431.997897807843</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1178.161014740097</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1178.161014740097</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W20" t="n">
-        <v>1178.161014740097</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X20" t="n">
-        <v>1178.161014740097</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="Y20" t="n">
-        <v>788.0216827642857</v>
+        <v>939.1347453739243</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>322.2601215528222</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="C21" t="n">
-        <v>322.2601215528222</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="D21" t="n">
-        <v>173.325711891571</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
         <v>32.45932575975218</v>
@@ -5829,25 +5831,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N21" t="n">
-        <v>1122.174837776967</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O21" t="n">
-        <v>1370.928251860929</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1553.57172947428</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5856,25 +5858,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1575.727235535692</v>
       </c>
       <c r="T21" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.824226641186</v>
       </c>
       <c r="U21" t="n">
-        <v>1227.261385483253</v>
+        <v>1146.621559178664</v>
       </c>
       <c r="V21" t="n">
-        <v>992.1092772515105</v>
+        <v>911.4694509469211</v>
       </c>
       <c r="W21" t="n">
-        <v>737.871920523309</v>
+        <v>657.2320942187196</v>
       </c>
       <c r="X21" t="n">
-        <v>530.0204203177761</v>
+        <v>449.3805940131867</v>
       </c>
       <c r="Y21" t="n">
-        <v>322.2601215528222</v>
+        <v>449.3805940131867</v>
       </c>
     </row>
     <row r="22">
@@ -5944,10 +5946,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V22" t="n">
-        <v>1583.596182181372</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144411</v>
+        <v>1333.549117950648</v>
       </c>
       <c r="X22" t="n">
         <v>1294.179012144411</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1369.129404919863</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C23" t="n">
-        <v>1369.129404919863</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D23" t="n">
-        <v>1369.129404919863</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E23" t="n">
-        <v>1369.129404919863</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F23" t="n">
-        <v>968.7637269953004</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G23" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975218</v>
@@ -5993,10 +5995,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6023,16 +6025,16 @@
         <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1369.129404919863</v>
+        <v>1181.667792808031</v>
       </c>
       <c r="W23" t="n">
-        <v>1369.129404919863</v>
+        <v>828.8991375379167</v>
       </c>
       <c r="X23" t="n">
-        <v>1369.129404919863</v>
+        <v>828.8991375379167</v>
       </c>
       <c r="Y23" t="n">
-        <v>1369.129404919863</v>
+        <v>828.8991375379167</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.0447845327542</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C24" t="n">
-        <v>154.0447845327542</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="H24" t="n">
         <v>32.45932575975218</v>
@@ -6066,7 +6068,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K24" t="n">
         <v>186.5657812216814</v>
@@ -6096,22 +6098,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1455.464052945775</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>1227.261385483253</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V24" t="n">
-        <v>992.1092772515105</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W24" t="n">
-        <v>737.871920523309</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X24" t="n">
-        <v>530.0204203177761</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y24" t="n">
-        <v>322.2601215528222</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>213.3335080205569</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>213.3335080205569</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>43.91262969004134</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>43.91262969004134</v>
       </c>
       <c r="I25" t="n">
         <v>32.45932575975218</v>
@@ -6154,43 +6156,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N25" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R25" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S25" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T25" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U25" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V25" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W25" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="X25" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>852.1392691878377</v>
+        <v>883.5977926533733</v>
       </c>
       <c r="C26" t="n">
-        <v>852.1392691878377</v>
+        <v>883.5977926533733</v>
       </c>
       <c r="D26" t="n">
-        <v>852.1392691878377</v>
+        <v>883.5977926533733</v>
       </c>
       <c r="E26" t="n">
-        <v>852.1392691878377</v>
+        <v>883.5977926533733</v>
       </c>
       <c r="F26" t="n">
-        <v>442.2992974737949</v>
+        <v>883.5977926533733</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>473.7578209393305</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>136.9494212264814</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
@@ -6230,10 +6232,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6251,25 +6253,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>948.8168854676546</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>852.1392691878377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>852.1392691878377</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X26" t="n">
-        <v>852.1392691878377</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y26" t="n">
-        <v>852.1392691878377</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>106.8963237707217</v>
+        <v>784.9017952688528</v>
       </c>
       <c r="C27" t="n">
-        <v>106.8963237707217</v>
+        <v>610.4487659877258</v>
       </c>
       <c r="D27" t="n">
-        <v>106.8963237707217</v>
+        <v>461.5143563264745</v>
       </c>
       <c r="E27" t="n">
-        <v>106.8963237707217</v>
+        <v>302.276901321019</v>
       </c>
       <c r="F27" t="n">
-        <v>106.8963237707217</v>
+        <v>155.742343347904</v>
       </c>
       <c r="G27" t="n">
-        <v>106.8963237707217</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>106.8963237707217</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497702</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N27" t="n">
-        <v>1131.969124699639</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V27" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W27" t="n">
-        <v>690.7234597612764</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X27" t="n">
-        <v>482.8719595557436</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y27" t="n">
-        <v>275.1116607907897</v>
+        <v>953.1171322889209</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S28" t="n">
-        <v>74.94347063709384</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.115195072318</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.45932575975218</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="C29" t="n">
-        <v>32.45932575975218</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="D29" t="n">
-        <v>32.45932575975218</v>
+        <v>590.5511868609042</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975218</v>
+        <v>590.5511868609042</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>590.5511868609042</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T29" t="n">
-        <v>1088.658125761969</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U29" t="n">
-        <v>834.8212426942227</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V29" t="n">
-        <v>503.7583553506521</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="W29" t="n">
-        <v>150.9897000805379</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="X29" t="n">
-        <v>32.45932575975218</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.45932575975218</v>
+        <v>948.8168854676546</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>448.5248967308594</v>
+        <v>784.9017952688528</v>
       </c>
       <c r="C30" t="n">
-        <v>448.5248967308594</v>
+        <v>610.4487659877258</v>
       </c>
       <c r="D30" t="n">
-        <v>448.5248967308594</v>
+        <v>461.5143563264745</v>
       </c>
       <c r="E30" t="n">
-        <v>289.2874417254039</v>
+        <v>302.276901321019</v>
       </c>
       <c r="F30" t="n">
-        <v>142.7528837522889</v>
+        <v>155.742343347904</v>
       </c>
       <c r="G30" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
         <v>32.45932575975218</v>
@@ -6540,52 +6542,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>228.1292889633052</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L30" t="n">
-        <v>525.8610439449684</v>
+        <v>455.5486407992528</v>
       </c>
       <c r="M30" t="n">
-        <v>846.1963634746702</v>
+        <v>787.4484690620212</v>
       </c>
       <c r="N30" t="n">
-        <v>1190.717019112288</v>
+        <v>1131.969124699639</v>
       </c>
       <c r="O30" t="n">
-        <v>1513.730526286846</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V30" t="n">
-        <v>709.8087082577354</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W30" t="n">
-        <v>455.5713515295337</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X30" t="n">
-        <v>448.5248967308594</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y30" t="n">
-        <v>448.5248967308594</v>
+        <v>953.1171322889209</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C31" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D31" t="n">
         <v>32.45932575975218</v>
@@ -6628,43 +6630,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N31" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q31" t="n">
-        <v>296.5701361642185</v>
+        <v>296.5701361642184</v>
       </c>
       <c r="R31" t="n">
-        <v>129.4902764300189</v>
+        <v>296.5701361642184</v>
       </c>
       <c r="S31" t="n">
-        <v>129.4902764300189</v>
+        <v>296.5701361642184</v>
       </c>
       <c r="T31" t="n">
-        <v>129.4902764300189</v>
+        <v>296.5701361642184</v>
       </c>
       <c r="U31" t="n">
-        <v>129.4902764300189</v>
+        <v>296.5701361642184</v>
       </c>
       <c r="V31" t="n">
-        <v>129.4902764300189</v>
+        <v>296.5701361642184</v>
       </c>
       <c r="W31" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X31" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.7250243665027</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="C32" t="n">
-        <v>390.7250243665027</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M32" t="n">
         <v>838.8947028941454</v>
@@ -6728,22 +6730,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1167.464196406436</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U32" t="n">
-        <v>1167.464196406436</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="V32" t="n">
-        <v>1167.464196406436</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="W32" t="n">
-        <v>1167.464196406436</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="X32" t="n">
-        <v>1167.464196406436</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="Y32" t="n">
-        <v>777.3248644306245</v>
+        <v>968.7637269953007</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>348.8466781426035</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>174.3936488614765</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D33" t="n">
-        <v>174.3936488614765</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
         <v>32.45932575975218</v>
@@ -6780,22 +6782,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456783</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6807,22 +6809,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1422.063279093102</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U33" t="n">
-        <v>1422.063279093102</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V33" t="n">
-        <v>1186.91117086136</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W33" t="n">
-        <v>932.6738141331582</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X33" t="n">
-        <v>724.8223139276254</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y33" t="n">
-        <v>517.0620151626715</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E34" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
         <v>32.45932575975218</v>
@@ -6865,43 +6867,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N34" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R34" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S34" t="n">
-        <v>194.1667418687505</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T34" t="n">
-        <v>194.1667418687505</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U34" t="n">
-        <v>194.1667418687505</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V34" t="n">
-        <v>194.1667418687505</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="W34" t="n">
-        <v>194.1667418687505</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="X34" t="n">
-        <v>194.1667418687505</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.1667418687505</v>
+        <v>139.6199360758254</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>759.6875413069145</v>
+        <v>1197.050067012451</v>
       </c>
       <c r="C35" t="n">
-        <v>390.7250243665027</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D35" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F35" t="n">
         <v>32.45932575975218</v>
@@ -6935,13 +6937,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941454</v>
@@ -6962,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1536.426713346848</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="U35" t="n">
-        <v>1536.426713346848</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="V35" t="n">
-        <v>1536.426713346848</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="W35" t="n">
-        <v>1536.426713346848</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="X35" t="n">
-        <v>1536.426713346848</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="Y35" t="n">
-        <v>1146.287381371036</v>
+        <v>1583.649907076573</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.6600854869342</v>
+        <v>704.2173371478184</v>
       </c>
       <c r="C36" t="n">
-        <v>815.2070562058072</v>
+        <v>529.7643078666914</v>
       </c>
       <c r="D36" t="n">
-        <v>666.272646544556</v>
+        <v>529.7643078666914</v>
       </c>
       <c r="E36" t="n">
         <v>507.0351915391004</v>
@@ -7014,52 +7016,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.042269026703</v>
+        <v>1117.3093031997</v>
       </c>
       <c r="O36" t="n">
-        <v>1483.055776201262</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.763620525087</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V36" t="n">
-        <v>1159.611512293345</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W36" t="n">
-        <v>1159.611512293345</v>
+        <v>1119.829136118305</v>
       </c>
       <c r="X36" t="n">
-        <v>1159.611512293345</v>
+        <v>911.9776359127723</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.875422507002</v>
+        <v>704.2173371478184</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="Y37" t="n">
-        <v>1402.173708844079</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>482.0525874241086</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="C38" t="n">
-        <v>482.0525874241086</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="D38" t="n">
-        <v>482.0525874241086</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="E38" t="n">
-        <v>96.26433482586435</v>
+        <v>779.107697186644</v>
       </c>
       <c r="F38" t="n">
-        <v>96.26433482586435</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975218</v>
@@ -7172,16 +7174,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7199,25 +7201,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381201</v>
+        <v>1387.63986940412</v>
       </c>
       <c r="T38" t="n">
-        <v>1088.658125761969</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="U38" t="n">
-        <v>834.8212426942227</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="V38" t="n">
-        <v>834.8212426942227</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="W38" t="n">
-        <v>482.0525874241086</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="X38" t="n">
-        <v>482.0525874241086</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="Y38" t="n">
-        <v>482.0525874241086</v>
+        <v>1164.895949784888</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>797.187848166978</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C39" t="n">
-        <v>797.187848166978</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D39" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809357</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L39" t="n">
-        <v>534.6972605625989</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668618</v>
+        <v>787.1981282902017</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.71878392782</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U39" t="n">
-        <v>1173.163483952</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V39" t="n">
-        <v>1173.163483952</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W39" t="n">
-        <v>1173.163483952</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X39" t="n">
-        <v>1173.163483952</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y39" t="n">
-        <v>965.4031851870461</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="40">
@@ -7339,37 +7341,37 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N40" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U40" t="n">
-        <v>72.05002336285361</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V40" t="n">
-        <v>72.05002336285361</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975218</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X40" t="n">
         <v>32.45932575975218</v>
@@ -7433,13 +7435,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1431.997897807843</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T41" t="n">
-        <v>1431.997897807843</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U41" t="n">
         <v>1178.161014740097</v>
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>989.6600854869342</v>
+        <v>771.9123356732376</v>
       </c>
       <c r="C42" t="n">
-        <v>815.2070562058072</v>
+        <v>597.4593063921106</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>603.9526142706626</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1278.63605280448</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7515,25 +7517,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U42" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V42" t="n">
-        <v>1619.873078000158</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="W42" t="n">
-        <v>1365.635721271956</v>
+        <v>1201.226696217573</v>
       </c>
       <c r="X42" t="n">
-        <v>1365.635721271956</v>
+        <v>1147.887971458259</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.875422507002</v>
+        <v>940.1276726933056</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
         <v>32.45932575975218</v>
@@ -7597,22 +7599,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U43" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V43" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W43" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7627,16 @@
         <v>846.2271159476757</v>
       </c>
       <c r="C44" t="n">
-        <v>477.2645990072639</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="D44" t="n">
-        <v>118.9989004005134</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="E44" t="n">
-        <v>118.9989004005134</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="F44" t="n">
-        <v>32.45932575975218</v>
+        <v>436.3871442336329</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7646,13 +7648,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941453</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.6600854869342</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>157.8168858175896</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>429.4559294185257</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M45" t="n">
-        <v>828.8740660227886</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N45" t="n">
-        <v>1230.558222299722</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1553.57172947428</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1553.57172947428</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T45" t="n">
-        <v>1455.464052945775</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U45" t="n">
-        <v>1412.112779235204</v>
+        <v>1332.777402662337</v>
       </c>
       <c r="V45" t="n">
-        <v>1412.112779235204</v>
+        <v>1332.777402662337</v>
       </c>
       <c r="W45" t="n">
-        <v>1157.875422507002</v>
+        <v>1078.540045934135</v>
       </c>
       <c r="X45" t="n">
-        <v>1157.875422507002</v>
+        <v>1078.540045934135</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.875422507002</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F46" t="n">
         <v>32.45932575975218</v>
@@ -7831,25 +7833,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029501</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="W46" t="n">
-        <v>260.4488766577695</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>351.7205150479951</v>
+        <v>256.1837670754359</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>225.5874665104201</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>254.0695379343277</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>191.536906948002</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>390.1250211658773</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343858</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733475</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>404.2448282451924</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>352.4165126516185</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>145.8446138423421</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>418.6608354667125</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>170.7037120086121</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11385,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>145.8446138423421</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22589,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>134.8347431830299</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>203.8284657848434</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22860,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>59.75548455249177</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>45.03159331245277</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23027,16 +23029,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G8" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23078,10 +23080,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,16 +23153,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>22.74146355134542</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23261,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>162.3886063365501</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
-        <v>54.61374593129921</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23352,7 +23354,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>99.72383619017162</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>71.11679827583598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>76.77696092765444</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>93.88506133768996</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G14" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23543,7 +23545,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>113.3904452275469</v>
+        <v>147.8448510108552</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23583,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>50.949201609471</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>21.18181338303363</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23637,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>126.1137933559315</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23735,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>306.9349787968916</v>
       </c>
       <c r="I17" t="n">
-        <v>70.41439893299201</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>50.94920160947083</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>202.7107073159006</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23938,19 +23940,19 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>180.4339941236785</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>224.3070639580731</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>112.8556863456975</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>31.45777414507177</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>18.18735818490035</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>119.060550764018</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24114,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24184,13 +24186,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>213.1612385756534</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408625</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>10.51402459639434</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>142.1652624794208</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>27.07546137936676</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,7 +24302,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>21.18181338303363</v>
       </c>
       <c r="I24" t="n">
         <v>78.54202280713804</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.74163823402893</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>136.1631871670945</v>
       </c>
       <c r="J25" t="n">
         <v>74.67247646141476</v>
@@ -24409,7 +24411,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>84.31427499850798</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,19 +24493,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>232.0414183531162</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,25 +24524,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>14.97806209615118</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>4.849394776278245</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24643,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>184.7569622607431</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>67.45707340289928</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>383.4023468666841</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24737,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>252.3860301008911</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>14.97806209615118</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>198.7969949527899</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>52.55483185464828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
         <v>219.4103988718534</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>25.05329603616946</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>78.01800993802286</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>132.603059458067</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>17.13010058469391</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>85.40566091718961</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.74297596902481</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25093,10 +25095,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>62.08409257158715</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
@@ -25157,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G35" t="n">
         <v>414.7135041305339</v>
@@ -25202,10 +25204,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>109.9187349402929</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>181.5932633211137</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.1432552910859</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.9639668888253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.91723044926633</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25360,7 +25362,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>112.4956491391823</v>
       </c>
     </row>
     <row r="38">
@@ -25403,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>351.5465451550829</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>75.47544578269029</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25470,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>17.83901595844094</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>85.40566091718961</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>247.3282077095206</v>
+        <v>186.7332506408623</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>119.389893902376</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.534207556678467</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,7 +25757,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -25764,13 +25766,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>229.7383092618483</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>152.9676476917567</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>128.0520304715574</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25837,10 +25839,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>321.2018668473578</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>14.82496384139199</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>183.0028798144311</v>
+        <v>218.1112076197143</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
@@ -26071,7 +26073,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4103988718534</v>
+        <v>185.7660064565879</v>
       </c>
       <c r="T46" t="n">
         <v>226.8162656893113</v>
@@ -26083,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>186.7332506408623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>398785.614075198</v>
+        <v>398785.6140751981</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>398785.614075198</v>
+        <v>398785.6140751981</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512709.3529550558</v>
+        <v>512709.3529550561</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>512709.3529550554</v>
+        <v>512709.3529550555</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>512709.3529550558</v>
+        <v>512709.3529550559</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>512709.3529550559</v>
+        <v>512709.3529550557</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>512709.3529550558</v>
+        <v>512709.3529550559</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>512709.3529550559</v>
+        <v>512709.3529550558</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512709.3529550557</v>
+        <v>512709.3529550561</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="C2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="D2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="E2" t="n">
-        <v>234991.7867710671</v>
+        <v>234991.7867710672</v>
       </c>
       <c r="F2" t="n">
         <v>234991.7867710672</v>
@@ -26332,28 +26334,28 @@
         <v>234991.7867710672</v>
       </c>
       <c r="I2" t="n">
+        <v>234991.7867710671</v>
+      </c>
+      <c r="J2" t="n">
         <v>234991.7867710672</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>234991.7867710671</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>234991.7867710671</v>
+      </c>
+      <c r="M2" t="n">
+        <v>234991.7867710671</v>
+      </c>
+      <c r="N2" t="n">
         <v>234991.7867710672</v>
       </c>
-      <c r="L2" t="n">
-        <v>234991.7867710673</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>234991.7867710672</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>234991.7867710671</v>
-      </c>
-      <c r="O2" t="n">
-        <v>234991.7867710671</v>
-      </c>
-      <c r="P2" t="n">
-        <v>234991.7867710672</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
         <v>179.5324977039669</v>
@@ -26476,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375756</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53546.50699145229</v>
+        <v>53546.50699145224</v>
       </c>
       <c r="C6" t="n">
-        <v>134315.938523</v>
+        <v>134315.9385229999</v>
       </c>
       <c r="D6" t="n">
-        <v>134315.938523</v>
+        <v>134315.9385229999</v>
       </c>
       <c r="E6" t="n">
-        <v>39881.3050290143</v>
+        <v>39881.30502901433</v>
       </c>
       <c r="F6" t="n">
         <v>206821.4751542611</v>
@@ -26540,28 +26542,28 @@
         <v>206821.4751542611</v>
       </c>
       <c r="I6" t="n">
+        <v>206821.475154261</v>
+      </c>
+      <c r="J6" t="n">
+        <v>143761.5325551549</v>
+      </c>
+      <c r="K6" t="n">
+        <v>206821.475154261</v>
+      </c>
+      <c r="L6" t="n">
+        <v>206821.475154261</v>
+      </c>
+      <c r="M6" t="n">
+        <v>165770.7772918131</v>
+      </c>
+      <c r="N6" t="n">
         <v>206821.4751542611</v>
       </c>
-      <c r="J6" t="n">
-        <v>143761.5325551548</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>206821.4751542611</v>
       </c>
-      <c r="L6" t="n">
-        <v>206821.4751542612</v>
-      </c>
-      <c r="M6" t="n">
-        <v>165770.7772918132</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>206821.475154261</v>
-      </c>
-      <c r="O6" t="n">
-        <v>206821.475154261</v>
-      </c>
-      <c r="P6" t="n">
-        <v>206821.4751542611</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438473</v>
@@ -32011,25 +32013,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R14" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T14" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32071,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427703</v>
@@ -32078,31 +32080,31 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>57.74090973668206</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
@@ -32181,7 +32183,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32312,28 +32314,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>41.20199547435985</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>19.57424965436761</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011532</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046561</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629217</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645899</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044656</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438473</v>
@@ -32485,25 +32487,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971763</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737664</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134782</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545222</v>
       </c>
       <c r="S20" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091549</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809224</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891927</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.7858796132193</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409521</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253942</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864763</v>
       </c>
       <c r="N21" t="n">
-        <v>48.530267468354</v>
+        <v>81.99586254975587</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>75.01019504100586</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>60.20229453601699</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>40.24363958326608</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422063</v>
       </c>
       <c r="T21" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259947</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823637</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412593</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323127</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141107</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039454</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735009</v>
+        <v>22.13234246735008</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118888</v>
       </c>
       <c r="T22" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970202</v>
       </c>
       <c r="U22" t="n">
         <v>0.01441689879536431</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L23" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438473</v>
@@ -32722,25 +32724,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R23" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S23" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32782,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427703</v>
@@ -32792,10 +32794,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>31.41587571553987</v>
+        <v>31.41587571553993</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32813,7 +32815,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32856,34 +32858,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O25" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
         <v>22.13234246735009</v>
@@ -32892,7 +32894,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -32935,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H26" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I26" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J26" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K26" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L26" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M26" t="n">
         <v>103.4642265438473</v>
@@ -32959,25 +32961,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O26" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P26" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R26" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S26" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T26" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,40 +33019,40 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H27" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I27" t="n">
         <v>10.85461004427703</v>
       </c>
       <c r="J27" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L27" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M27" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N27" t="n">
-        <v>29.38419829520308</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P27" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R27" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S27" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T27" t="n">
         <v>1.270749889259948</v>
@@ -33093,34 +33095,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H28" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I28" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J28" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K28" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L28" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M28" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N28" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O28" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P28" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q28" t="n">
         <v>22.13234246735009</v>
@@ -33129,7 +33131,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S28" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T28" t="n">
         <v>1.129323738970203</v>
@@ -33172,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H29" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I29" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J29" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K29" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L29" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M29" t="n">
         <v>103.4642265438473</v>
@@ -33196,25 +33198,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O29" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P29" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R29" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S29" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T29" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,31 +33256,31 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H30" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I30" t="n">
         <v>10.85461004427703</v>
       </c>
       <c r="J30" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>41.98334115315532</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>11.68132195259261</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q30" t="n">
         <v>40.24363958326609</v>
@@ -33287,7 +33289,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S30" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T30" t="n">
         <v>1.270749889259948</v>
@@ -33330,34 +33332,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H31" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I31" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J31" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K31" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L31" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M31" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N31" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O31" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P31" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q31" t="n">
         <v>22.13234246735009</v>
@@ -33366,7 +33368,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S31" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T31" t="n">
         <v>1.129323738970203</v>
@@ -33409,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H32" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I32" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J32" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K32" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L32" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M32" t="n">
         <v>103.4642265438473</v>
@@ -33433,25 +33435,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O32" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P32" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R32" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S32" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T32" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,31 +33493,31 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H33" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I33" t="n">
         <v>10.85461004427703</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M33" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O33" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P33" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q33" t="n">
         <v>40.24363958326609</v>
@@ -33524,7 +33526,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S33" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T33" t="n">
         <v>1.270749889259948</v>
@@ -33567,34 +33569,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H34" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I34" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J34" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K34" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L34" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M34" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N34" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O34" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P34" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q34" t="n">
         <v>22.13234246735009</v>
@@ -33603,7 +33605,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S34" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T34" t="n">
         <v>1.129323738970203</v>
@@ -33646,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H35" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I35" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J35" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K35" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L35" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M35" t="n">
         <v>103.4642265438473</v>
@@ -33670,25 +33672,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O35" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P35" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R35" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S35" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T35" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,40 +33730,40 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H36" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I36" t="n">
         <v>10.85461004427703</v>
       </c>
       <c r="J36" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M36" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N36" t="n">
-        <v>57.74090973668206</v>
+        <v>43.61558607717569</v>
       </c>
       <c r="O36" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P36" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S36" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T36" t="n">
         <v>1.270749889259948</v>
@@ -33804,34 +33806,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H37" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I37" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J37" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K37" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L37" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M37" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N37" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O37" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P37" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q37" t="n">
         <v>22.13234246735009</v>
@@ -33840,7 +33842,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S37" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T37" t="n">
         <v>1.129323738970203</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I38" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L38" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438473</v>
@@ -33907,25 +33909,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R38" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S38" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T38" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,31 +33967,31 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H39" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427703</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100589</v>
+        <v>0.2528694664844409</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q39" t="n">
         <v>40.24363958326609</v>
@@ -33998,7 +34000,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
@@ -34041,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O40" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q40" t="n">
         <v>22.13234246735009</v>
@@ -34077,7 +34079,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S40" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34208,7 +34210,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K42" t="n">
         <v>50.90881248409524</v>
@@ -34217,7 +34219,7 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -34366,7 +34368,7 @@
         <v>22.71642005983599</v>
       </c>
       <c r="J44" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629204</v>
       </c>
       <c r="K44" t="n">
         <v>74.95269614645902</v>
@@ -34375,7 +34377,7 @@
         <v>92.9854473404466</v>
       </c>
       <c r="M44" t="n">
-        <v>103.4642265438472</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N44" t="n">
         <v>105.1383858978454</v>
@@ -34445,28 +34447,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L45" t="n">
-        <v>42.09690680059288</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M45" t="n">
         <v>79.88163340864766</v>
       </c>
       <c r="N45" t="n">
-        <v>57.74090973668206</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>75.01019504100589</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R45" t="n">
         <v>19.57424965436761</v>
@@ -34781,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>302.3746655144177</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726432</v>
@@ -35656,7 +35658,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>204.7236884007503</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35744,7 +35746,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O16" t="n">
         <v>61.94411832576036</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>117.7647940696888</v>
+        <v>225.6903566999668</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167965</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726432</v>
@@ -36130,16 +36132,16 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N20" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O20" t="n">
         <v>249.9811662707763</v>
       </c>
       <c r="P20" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680302</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36209,16 +36211,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>396.5309297285742</v>
+        <v>340.7791716322998</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243077</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325165</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576035</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714789</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726432</v>
@@ -36367,7 +36369,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N23" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O23" t="n">
         <v>249.9811662707763</v>
@@ -36376,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K24" t="n">
         <v>126.6237980382196</v>
@@ -36516,16 +36518,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
         <v>61.94411832576036</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K26" t="n">
         <v>179.0082576726432</v>
@@ -36604,7 +36606,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N26" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O26" t="n">
         <v>249.9811662707763</v>
@@ -36613,7 +36615,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366292</v>
+        <v>341.9924277318217</v>
       </c>
       <c r="N27" t="n">
-        <v>377.3848605554233</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,16 +36755,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L28" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M28" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N28" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O28" t="n">
         <v>61.94411832576036</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K29" t="n">
         <v>179.0082576726432</v>
@@ -36841,7 +36843,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N29" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O29" t="n">
         <v>249.9811662707763</v>
@@ -36850,7 +36852,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>168.6071391913749</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>335.2523517805742</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,16 +36992,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L31" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M31" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N31" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O31" t="n">
         <v>61.94411832576036</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K32" t="n">
         <v>179.0082576726432</v>
@@ -37078,7 +37080,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N32" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O32" t="n">
         <v>249.9811662707763</v>
@@ -37087,7 +37089,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,7 +37159,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>221.0748005682852</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37166,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,16 +37229,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L34" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M34" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N34" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O34" t="n">
         <v>61.94411832576036</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K35" t="n">
         <v>179.0082576726432</v>
@@ -37315,7 +37317,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N35" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O35" t="n">
         <v>249.9811662707763</v>
@@ -37324,7 +37326,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>391.6162483373959</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>30.98459604604517</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L37" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M37" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N37" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O37" t="n">
         <v>61.94411832576036</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726432</v>
@@ -37552,7 +37554,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O38" t="n">
         <v>249.9811662707763</v>
@@ -37561,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>14.50290175900885</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>251.5189442987695</v>
       </c>
       <c r="P39" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O40" t="n">
         <v>61.94411832576036</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>276.5268015446942</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>326.276269873291</v>
+        <v>103.1176626051735</v>
       </c>
       <c r="P42" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167952</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38023,7 +38025,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094069</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
-        <v>274.3828723241779</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
